--- a/AHSGY (TRY).xlsx
+++ b/AHSGY (TRY).xlsx
@@ -2027,6 +2027,9 @@
       <c r="A108" t="str">
         <v xml:space="preserve">    Hedge Dahil Net Yabancı Para Pozisyonu</v>
       </c>
+      <c r="B108">
+        <v>1450391</v>
+      </c>
       <c r="C108">
         <v>1492892.9262524066</v>
       </c>
